--- a/data/trans_camb/P16A02-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.03311442948410354</v>
+        <v>-0.4667205604619962</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2441592964886261</v>
+        <v>0.06892052733612614</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.681790475535884</v>
+        <v>8.299595344610047</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.838470645862238</v>
+        <v>5.386495502403105</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.506206356354132</v>
+        <v>3.015438640677267</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.57225955612091</v>
+        <v>15.78766199793714</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>2.205543639244715</v>
+        <v>2.557170050256551</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.015422410191019</v>
+        <v>1.900074041581596</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>13.39726401988204</v>
+        <v>13.17147129042329</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.53513448243925</v>
+        <v>7.226949700347143</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.696131861763347</v>
+        <v>8.043844491066778</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.79556723001003</v>
+        <v>18.54535210751924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.24298619764666</v>
+        <v>13.34833634706241</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.73948395474081</v>
+        <v>11.5031130959665</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>25.53332889627388</v>
+        <v>25.29130230401973</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.272085985652417</v>
+        <v>8.303971860863703</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.525078620028379</v>
+        <v>7.706344011021312</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>20.06989363542372</v>
+        <v>20.56365548975944</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.233859248809866</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.8095837235955463</v>
+        <v>0.809583723595546</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3432275390913547</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.009362605817746904</v>
+        <v>-0.02766875085358697</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.01958343013424048</v>
+        <v>-0.004423695905663314</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4193789940332229</v>
+        <v>0.4397339747149607</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1694182642542252</v>
+        <v>0.1892473376695255</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1235224212607344</v>
+        <v>0.1036825149521607</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5421145811429722</v>
+        <v>0.5435466152582016</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08962050871056905</v>
+        <v>0.10316269297574</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0830665637073898</v>
+        <v>0.07675320829615116</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5641960681336784</v>
+        <v>0.5249528343159156</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.5299450159266391</v>
+        <v>0.4925117786056945</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5294183363851122</v>
+        <v>0.5416567965346939</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.298214906415764</v>
+        <v>1.263545079421759</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5330441994966477</v>
+        <v>0.5532587701983985</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4843486037233113</v>
+        <v>0.4768480847644267</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.049686757690772</v>
+        <v>1.038932644212531</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3963091694724931</v>
+        <v>0.3893406776211488</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.357157744410089</v>
+        <v>0.3666761570383642</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9734060813286975</v>
+        <v>0.9569442766439421</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.104273161177193</v>
+        <v>-0.8920708635429792</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.709133083514169</v>
+        <v>0.7077447287647386</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.405865304925433</v>
+        <v>6.67533446221323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.594742750273651</v>
+        <v>8.519914358037434</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>3.340212130430335</v>
+        <v>3.208767831837753</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>13.18842255774297</v>
+        <v>13.27307389650587</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>5.497021251543845</v>
+        <v>5.383019696588975</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>3.479253591938474</v>
+        <v>3.40951008608932</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>11.08539945964081</v>
+        <v>11.41520375063519</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.52957237114554</v>
+        <v>5.611106006060356</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.329884022051758</v>
+        <v>7.287761156862917</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13.38191378163165</v>
+        <v>13.69185028553527</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16.5982937290683</v>
+        <v>16.40512705721047</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.33315223463885</v>
+        <v>11.43352027477408</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>20.37686045094308</v>
+        <v>20.47293728093333</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.92725084705781</v>
+        <v>10.93494434140012</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.707428214010465</v>
+        <v>8.768739295251288</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.62192360271913</v>
+        <v>16.66760561536328</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07115109863263465</v>
+        <v>-0.06361979784988457</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.04348051040550981</v>
+        <v>0.04621926378414613</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4158561531847712</v>
+        <v>0.4264054776438152</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3378399003415674</v>
+        <v>0.3194287602436345</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1299737638954423</v>
+        <v>0.1242898556754077</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5040813670932665</v>
+        <v>0.5049793367942765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2645531828463066</v>
+        <v>0.2682080392602875</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1720091416106948</v>
+        <v>0.1691591098868967</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5458584880932417</v>
+        <v>0.567544734490566</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4534792897048633</v>
+        <v>0.4276901756760346</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5886555038166984</v>
+        <v>0.5856774699836194</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.082238612482342</v>
+        <v>1.082703580172885</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7571747850063791</v>
+        <v>0.7386723190517305</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5038044313681271</v>
+        <v>0.5133739294944895</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9349027477814</v>
+        <v>0.9322698491636924</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6169060155376248</v>
+        <v>0.6161575974196004</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4883573890243599</v>
+        <v>0.4935823649972476</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.9530646235305547</v>
+        <v>0.9330759082416269</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>8.780319896876623</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>15.64363537374957</v>
+        <v>15.64363537374958</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>7.539896180699862</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.009318539639513</v>
+        <v>2.090732307628351</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.875030009221998</v>
+        <v>0.6841974583213482</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5.198094532646224</v>
+        <v>5.077727172359777</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.110983463179313</v>
+        <v>5.075617913656871</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>4.694269203867412</v>
+        <v>4.443136731546552</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.96060005704692</v>
+        <v>11.87335313173247</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.179775161878766</v>
+        <v>4.963637047407635</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>3.816116372203809</v>
+        <v>4.11782626377995</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>9.486965714420105</v>
+        <v>9.625663489451661</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.885341633773173</v>
+        <v>8.811398435679516</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.527480060985241</v>
+        <v>7.722930132244947</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.8256390596697</v>
+        <v>11.90565983564722</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13.4199418072895</v>
+        <v>13.36262863351584</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>13.31183715063895</v>
+        <v>13.33107458184846</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.94857471567613</v>
+        <v>19.03855214557636</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>10.29529945981384</v>
+        <v>10.08119904898228</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.291730837572548</v>
+        <v>9.576483767435375</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>14.79897808753502</v>
+        <v>14.75926501517984</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.423599992694238</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7547155351810022</v>
+        <v>0.7547155351810024</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.451401537585593</v>
@@ -1197,7 +1197,7 @@
         <v>0.3928153511237666</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7360197726765809</v>
+        <v>0.7360197726765813</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1362197044639974</v>
+        <v>0.1459942131515842</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.06062166557799177</v>
+        <v>0.04465260022463909</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.365028361544923</v>
+        <v>0.3521400603715322</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2298738577286798</v>
+        <v>0.2232505539215461</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.2193392007152233</v>
+        <v>0.1993968150855122</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5272942836047415</v>
+        <v>0.5156290890766424</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2863189613355251</v>
+        <v>0.2741860406638432</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.2145496838742977</v>
+        <v>0.2293914396602989</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5320109461001273</v>
+        <v>0.5355611368040704</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.7469077529891638</v>
+        <v>0.7474916697023168</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6485251781769129</v>
+        <v>0.639279491500098</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.032365796594019</v>
+        <v>1.006948809897823</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7128010012997189</v>
+        <v>0.702706890972318</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7087088544281471</v>
+        <v>0.7069888961105114</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.001890918456422</v>
+        <v>1.005714708473488</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.66101612802998</v>
+        <v>0.6430461253009135</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.590128443254865</v>
+        <v>0.6135257159970406</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9503158579781817</v>
+        <v>0.9367866816169939</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>2.697808653565426</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>10.4784027557633</v>
+        <v>10.47840275576329</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.932441947199219</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.21830545965554</v>
+        <v>-1.229159032462112</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.704206928279609</v>
+        <v>2.379769165191374</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.102608065824597</v>
+        <v>7.133593367282062</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.595104134470867</v>
+        <v>-2.45145404895949</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.239054854489472</v>
+        <v>-3.758502870387583</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.823105570793713</v>
+        <v>4.943317548566633</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.3166523851084055</v>
+        <v>0.2255951025128627</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.828760071978784</v>
+        <v>2.104781068143346</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.90728363160355</v>
+        <v>8.222562627327948</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.936601529763862</v>
+        <v>7.837499206800295</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.48095609132761</v>
+        <v>11.71019313747342</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.55750201769226</v>
+        <v>15.51819160093691</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10.35958120764495</v>
+        <v>10.46434996342655</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>8.994194063879196</v>
+        <v>9.315534661398281</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>15.44585448183756</v>
+        <v>15.44017754400296</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>7.652499502179926</v>
+        <v>7.708282319113631</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.559007297590762</v>
+        <v>9.572454485090271</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>15.10748055446962</v>
+        <v>15.08288915981259</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.114486832614789</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4446716933700886</v>
+        <v>0.4446716933700884</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2314144373119846</v>
@@ -1411,7 +1411,7 @@
         <v>0.334447954886161</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.673296333079671</v>
+        <v>0.6732963330796706</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.09094739208124236</v>
+        <v>-0.08607381183983498</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.1893180884293089</v>
+        <v>0.1629239147931148</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4695404949988647</v>
+        <v>0.4955957931798086</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1012714579638425</v>
+        <v>-0.09274006487060191</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.122381238733521</v>
+        <v>-0.1388130230189734</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1710784855432473</v>
+        <v>0.175282184413876</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.01783304068175819</v>
+        <v>0.0004903897230379899</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09048529551403639</v>
+        <v>0.1092565428754226</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4049517360038351</v>
+        <v>0.4304644491400716</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8212520270829143</v>
+        <v>0.8181277988897492</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.308806601352837</v>
+        <v>1.164618914789747</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.608452935413997</v>
+        <v>1.603904006997168</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.5188338950829992</v>
+        <v>0.5277001461310999</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4606915347516462</v>
+        <v>0.4636576496221876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7649208674208807</v>
+        <v>0.7801388839131533</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5120568091371439</v>
+        <v>0.4885291189760577</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6322053585651624</v>
+        <v>0.6226357771931361</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.019208386614771</v>
+        <v>1.028736839602234</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>7.40333506980686</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>15.27722939822703</v>
+        <v>15.27722939822702</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.977835269784863</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.15439475206799</v>
+        <v>2.21813057728498</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.174694724388</v>
+        <v>3.350068273710284</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>8.316483659740523</v>
+        <v>8.075254652612708</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.554839321458442</v>
+        <v>7.769826588402543</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.184012527545755</v>
+        <v>5.245114427806519</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.28670362076742</v>
+        <v>13.39108007490009</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.362442413534819</v>
+        <v>5.480829254205914</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>4.711947721043963</v>
+        <v>4.785628725999752</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>11.35603432242126</v>
+        <v>11.42102973502723</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.885145454982074</v>
+        <v>5.727587627358699</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>6.851454694747057</v>
+        <v>6.93778965168748</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>11.95588623828967</v>
+        <v>12.14913292436261</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.00114995008557</v>
+        <v>12.06646071393065</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.681249055735124</v>
+        <v>9.434416421327825</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.47507416400334</v>
+        <v>17.34814942143662</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.470468245929393</v>
+        <v>8.459241761359461</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.601921345209534</v>
+        <v>7.634375179483547</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>14.1965168451751</v>
+        <v>14.35803423216212</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3125240043260828</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6449121728954275</v>
+        <v>0.644912172895427</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3701796538855388</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1472665248293528</v>
+        <v>0.1522340758968859</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.211851971541208</v>
+        <v>0.22338020571146</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5581481438357356</v>
+        <v>0.5435391498079163</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3062239095137867</v>
+        <v>0.3149889362097769</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2058982083494889</v>
+        <v>0.2123754544654667</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5425979574327686</v>
+        <v>0.5371853384953869</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2752323378188016</v>
+        <v>0.2781561584236036</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2391901189492492</v>
+        <v>0.2470134703477637</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.577311461121085</v>
+        <v>0.5852932223379549</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4448713137689487</v>
+        <v>0.4335883048600893</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5227399303881864</v>
+        <v>0.5259484148933199</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.9092754667777937</v>
+        <v>0.917273392738481</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5316845943581118</v>
+        <v>0.5352402145708829</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.4309937394519128</v>
+        <v>0.4160794950224564</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7833361198661771</v>
+        <v>0.7738234979165113</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4698082308034187</v>
+        <v>0.463588440168933</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.415350176765046</v>
+        <v>0.4245344038734778</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7831619886155998</v>
+        <v>0.7924868532971036</v>
       </c>
     </row>
     <row r="34">
